--- a/plugins/bg/src/pages/error/工作簿1.xlsx
+++ b/plugins/bg/src/pages/error/工作簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31987\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\blog\plugins\bg\src\pages\error\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31923958-F0FF-4329-A5B9-047FEC7E856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D8CF0-ABE8-4326-848B-FC21BF16E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="936" windowWidth="13728" windowHeight="11940" xr2:uid="{2775C55C-F99C-489C-BC88-8DE4D546E681}"/>
+    <workbookView xWindow="6015" yWindow="7530" windowWidth="38700" windowHeight="15345" xr2:uid="{2775C55C-F99C-489C-BC88-8DE4D546E681}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,82 +431,101 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="4.88671875" style="4"/>
+    <col min="8" max="8" width="4.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="2" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="3" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="H3" s="5"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
